--- a/teaching/traditional_assets/database/data/south_africa/south_africa_retail_online.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_retail_online.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0489</v>
+        <v>-0.0757</v>
       </c>
       <c r="E2">
-        <v>0.4970000000000001</v>
+        <v>0.199</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>0.107</v>
       </c>
       <c r="G2">
-        <v>-0.1182673126246794</v>
+        <v>-0.1073825503355705</v>
       </c>
       <c r="H2">
-        <v>-0.1182673126246794</v>
+        <v>-0.1073825503355705</v>
       </c>
       <c r="I2">
-        <v>-0.1721073817466826</v>
+        <v>-0.1252292748107888</v>
       </c>
       <c r="J2">
-        <v>-0.1614003626173848</v>
+        <v>-0.1252292748107888</v>
       </c>
       <c r="K2">
-        <v>5745</v>
+        <v>3020</v>
       </c>
       <c r="L2">
-        <v>1.637218580792249</v>
+        <v>0.6333892617449665</v>
       </c>
       <c r="M2">
-        <v>91</v>
+        <v>1565.2039</v>
       </c>
       <c r="N2">
-        <v>0.001268446487588042</v>
+        <v>0.0178454602046773</v>
       </c>
       <c r="O2">
-        <v>0.01583986074847694</v>
+        <v>0.5182794370860927</v>
       </c>
       <c r="P2">
-        <v>91</v>
+        <v>139.2039</v>
       </c>
       <c r="Q2">
-        <v>0.001268446487588042</v>
+        <v>0.001587114405852092</v>
       </c>
       <c r="R2">
-        <v>0.01583986074847694</v>
+        <v>0.04609400662251656</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.9110634084159898</v>
       </c>
       <c r="U2">
-        <v>2610</v>
+        <v>3931</v>
       </c>
       <c r="V2">
-        <v>0.03638071794071197</v>
+        <v>0.04481876390966471</v>
       </c>
       <c r="W2">
-        <v>0.21423776849642</v>
+        <v>0.1396983994819132</v>
       </c>
       <c r="X2">
-        <v>0.1134297339865145</v>
+        <v>0.1142827812487067</v>
       </c>
       <c r="Y2">
-        <v>0.1008080345099056</v>
+        <v>0.0254156182332065</v>
       </c>
       <c r="Z2">
-        <v>0.1409597894707251</v>
+        <v>0.2345825685257641</v>
       </c>
       <c r="AA2">
-        <v>-0.02275096113504526</v>
+        <v>-0.02937660493973361</v>
       </c>
       <c r="AB2">
-        <v>0.1096836140188756</v>
+        <v>0.1090749198676208</v>
       </c>
       <c r="AC2">
-        <v>-0.1324345751539209</v>
+        <v>-0.1384515248073544</v>
       </c>
       <c r="AD2">
-        <v>3513</v>
+        <v>5989</v>
       </c>
       <c r="AE2">
-        <v>229.6240127455459</v>
+        <v>10.46591148920461</v>
       </c>
       <c r="AF2">
-        <v>3742.624012745546</v>
+        <v>5999.465911489205</v>
       </c>
       <c r="AG2">
-        <v>1132.624012745546</v>
+        <v>2068.465911489205</v>
       </c>
       <c r="AH2">
-        <v>0.0495817362663022</v>
+        <v>0.06402280367834268</v>
       </c>
       <c r="AI2">
-        <v>0.11314670035863</v>
+        <v>0.1411158715713255</v>
       </c>
       <c r="AJ2">
-        <v>0.015542239945079</v>
+        <v>0.02303997443549341</v>
       </c>
       <c r="AK2">
-        <v>0.03717467473905199</v>
+        <v>0.05361016338538074</v>
       </c>
       <c r="AL2">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="AM2">
-        <v>-82</v>
+        <v>51</v>
       </c>
       <c r="AN2">
-        <v>-9.293650793650794</v>
+        <v>-13.33853006681514</v>
       </c>
       <c r="AO2">
-        <v>-2.913461538461538</v>
+        <v>-2.55793991416309</v>
       </c>
       <c r="AP2">
-        <v>-2.996359822078163</v>
+        <v>-4.60682831066638</v>
       </c>
       <c r="AQ2">
-        <v>7.390243902439025</v>
+        <v>-11.68627450980392</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0489</v>
+        <v>-0.0757</v>
       </c>
       <c r="E3">
-        <v>0.4970000000000001</v>
+        <v>0.199</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.107</v>
       </c>
       <c r="G3">
-        <v>-0.1182673126246794</v>
+        <v>-0.1073825503355705</v>
       </c>
       <c r="H3">
-        <v>-0.1182673126246794</v>
+        <v>-0.1073825503355705</v>
       </c>
       <c r="I3">
-        <v>-0.1721073817466826</v>
+        <v>-0.1252292748107888</v>
       </c>
       <c r="J3">
-        <v>-0.1614003626173848</v>
+        <v>-0.1252292748107888</v>
       </c>
       <c r="K3">
-        <v>5745</v>
+        <v>3020</v>
       </c>
       <c r="L3">
-        <v>1.637218580792249</v>
+        <v>0.6333892617449665</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>1565.2039</v>
       </c>
       <c r="N3">
-        <v>0.001268446487588042</v>
+        <v>0.0178454602046773</v>
       </c>
       <c r="O3">
-        <v>0.01583986074847694</v>
+        <v>0.5182794370860927</v>
       </c>
       <c r="P3">
-        <v>91</v>
+        <v>139.2039</v>
       </c>
       <c r="Q3">
-        <v>0.001268446487588042</v>
+        <v>0.001587114405852092</v>
       </c>
       <c r="R3">
-        <v>0.01583986074847694</v>
+        <v>0.04609400662251656</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.9110634084159898</v>
       </c>
       <c r="U3">
-        <v>2610</v>
+        <v>3931</v>
       </c>
       <c r="V3">
-        <v>0.03638071794071197</v>
+        <v>0.04481876390966471</v>
       </c>
       <c r="W3">
-        <v>0.21423776849642</v>
+        <v>0.1396983994819132</v>
       </c>
       <c r="X3">
-        <v>0.1134297339865145</v>
+        <v>0.1142827812487067</v>
       </c>
       <c r="Y3">
-        <v>0.1008080345099056</v>
+        <v>0.0254156182332065</v>
       </c>
       <c r="Z3">
-        <v>0.1409597894707251</v>
+        <v>0.2345825685257641</v>
       </c>
       <c r="AA3">
-        <v>-0.02275096113504526</v>
+        <v>-0.02937660493973361</v>
       </c>
       <c r="AB3">
-        <v>0.1096836140188756</v>
+        <v>0.1090749198676208</v>
       </c>
       <c r="AC3">
-        <v>-0.1324345751539209</v>
+        <v>-0.1384515248073544</v>
       </c>
       <c r="AD3">
-        <v>3513</v>
+        <v>5989</v>
       </c>
       <c r="AE3">
-        <v>229.6240127455459</v>
+        <v>10.46591148920461</v>
       </c>
       <c r="AF3">
-        <v>3742.624012745546</v>
+        <v>5999.465911489205</v>
       </c>
       <c r="AG3">
-        <v>1132.624012745546</v>
+        <v>2068.465911489205</v>
       </c>
       <c r="AH3">
-        <v>0.0495817362663022</v>
+        <v>0.06402280367834268</v>
       </c>
       <c r="AI3">
-        <v>0.11314670035863</v>
+        <v>0.1411158715713255</v>
       </c>
       <c r="AJ3">
-        <v>0.015542239945079</v>
+        <v>0.02303997443549341</v>
       </c>
       <c r="AK3">
-        <v>0.03717467473905199</v>
+        <v>0.05361016338538074</v>
       </c>
       <c r="AL3">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="AM3">
-        <v>-82</v>
+        <v>51</v>
       </c>
       <c r="AN3">
-        <v>-9.293650793650794</v>
+        <v>-13.33853006681514</v>
       </c>
       <c r="AO3">
-        <v>-2.913461538461538</v>
+        <v>-2.55793991416309</v>
       </c>
       <c r="AP3">
-        <v>-2.996359822078163</v>
+        <v>-4.60682831066638</v>
       </c>
       <c r="AQ3">
-        <v>7.390243902439025</v>
+        <v>-11.68627450980392</v>
       </c>
     </row>
   </sheetData>
